--- a/biology/Zoologie/Calycina/Calycina.xlsx
+++ b/biology/Zoologie/Calycina/Calycina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Calycina sont un super-ordre d'oursins.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le super-ordre Calycina Gregory, 1900 ne doit pas être confondu avec le genre Calycina Nees ex Gray qui concerne des champignons.
 </t>
@@ -542,11 +556,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins réguliers de forme ronde ; la bouche est située au centre de la face orale (inférieure), et l'anus à l'opposé, au sommet du test (coquille).
-Leur test, calcaire, est rigide et couvert de piquants durs (« radioles ») ; il est caractérisé dans ce clade par la présence d'une ou plusieurs larges plaques périproctales au-dessus du disque apical, dans laquelle s'insèrent les gonopores[2].
-Ce super-ordre est apparu au début du Jurassique (Hettangien)[2], mais est aujourd'hui fossile depuis que la famille des Saleniidae en a été exclue[3]. 
+Leur test, calcaire, est rigide et couvert de piquants durs (« radioles ») ; il est caractérisé dans ce clade par la présence d'une ou plusieurs larges plaques périproctales au-dessus du disque apical, dans laquelle s'insèrent les gonopores.
+Ce super-ordre est apparu au début du Jurassique (Hettangien), mais est aujourd'hui fossile depuis que la famille des Saleniidae en a été exclue. 
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des ordres et familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (19 février 2021)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (19 février 2021) :
 Ordre † Phymosomatoida Mortensen, 1904
 famille † Diplopodiidae Smith &amp; Wright, 1993
 famille † Emiratiidae Ali, 1990
